--- a/excel/alunos.xlsx
+++ b/excel/alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\node\gerador-certificado\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC520CF1-E0E9-4AB6-98A0-F8AF85467E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549E155-0E49-4AE7-B2D6-9F97463F0444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F077914F-A906-4305-9855-7C18F6D8691F}"/>
   </bookViews>
@@ -39,15 +39,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>luiz</t>
-  </si>
-  <si>
     <t>curso</t>
   </si>
   <si>
@@ -82,6 +73,15 @@
   </si>
   <si>
     <t>Ciência da Computação</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Luiz</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +131,9 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +451,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,22 +467,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -487,20 +490,20 @@
       <c r="A2" s="1">
         <v>1010</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -508,20 +511,20 @@
       <c r="A3" s="1">
         <v>2020</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -529,20 +532,20 @@
       <c r="A4" s="1">
         <v>3030</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="3"/>
     </row>

--- a/excel/alunos.xlsx
+++ b/excel/alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\node\gerador-certificado\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549E155-0E49-4AE7-B2D6-9F97463F0444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABDA331-059D-4B56-95BD-F5F1B84541F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F077914F-A906-4305-9855-7C18F6D8691F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -75,13 +75,16 @@
     <t>Ciência da Computação</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>Jose</t>
   </si>
   <si>
     <t>Luiz</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>João Pessoa</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
         <v>1010</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -500,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -512,7 +515,7 @@
         <v>2020</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -533,7 +536,7 @@
         <v>3030</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
